--- a/examples/USA OGD/Baton_rouge/counters_summary.xlsx
+++ b/examples/USA OGD/Baton_rouge/counters_summary.xlsx
@@ -345,7 +345,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>

--- a/examples/USA OGD/Baton_rouge/counters_summary.xlsx
+++ b/examples/USA OGD/Baton_rouge/counters_summary.xlsx
@@ -360,77 +360,102 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>COMPLETENESSMANDATORY</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSMANDATORY SCORE</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSOPTIONAL</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSOPTIONAL SCORE</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>PRECISION</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>PRECISION SCORE</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>BUSINESSRULECOMPLIANCE</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>BUSINESSRULECOMPLIANCE SCORE</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>METADATACOMPLIANCE</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>METADATACOMPLIANCE SCORE</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>UNIQUENESS</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>UNIQUENESSCOMPOSITE</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>UNIQUENESS SCORE</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>NONREDUNDANCY</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>NONREDUNDANCY SCORE</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>SEMANTICCONSISTENCY</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>SEMANTICCONSISTENCY SCORE</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>VALUECONSISTENCY</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>VALUECONSISTENCY SCORE</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
         <is>
           <t>FORMATCONSISTENCY</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>FORMATCONSISTENCYPREFIX</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>VALUECONSISTENCY</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCESIZE</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCETYPE</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCERANGEMIN</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCERANGEMAX</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCEENUM</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>RULECOMPLIANCE</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>MANDATORYCOMPLETENESS</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>OPTIONALCOMPLETENESS</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>AVAILABILITY</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>CONFORMANCE</t>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>FORMATCONSISTENCY SCORE</t>
         </is>
       </c>
     </row>
@@ -441,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3797</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.01418</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -459,22 +484,22 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>3797</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.01418</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3797</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -483,6 +508,21 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -537,6 +577,21 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -545,10 +600,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3796</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.014176</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -563,22 +618,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>3809</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.014225</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3796</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -587,6 +642,21 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -641,6 +711,21 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -693,6 +778,21 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -745,6 +845,21 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -797,6 +912,21 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -805,10 +935,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>3796</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.014176</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -838,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>3796</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -847,6 +977,21 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -857,10 +1002,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>4245</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.015853</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -890,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>4245</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -899,6 +1044,21 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -909,10 +1069,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>223270</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.833803</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -942,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>223270</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -951,6 +1111,21 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -961,10 +1136,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>3796</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.014176</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -994,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>3796</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1003,6 +1178,21 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1013,10 +1203,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>14081</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.052586</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1046,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>14081</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1055,6 +1245,21 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1065,10 +1270,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>3796</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.014176</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1098,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>3796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1107,6 +1312,21 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1117,10 +1337,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>3796</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.014176</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1150,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>3796</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1159,6 +1379,21 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1169,10 +1404,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>121010</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.451913</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1202,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>121010</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1211,6 +1446,21 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1221,10 +1471,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>13573</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1254,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>13573</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1263,6 +1513,21 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1273,10 +1538,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>13573</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1306,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>13573</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1315,6 +1580,21 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1325,10 +1605,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>13573</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1358,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>13573</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1367,6 +1647,21 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1377,10 +1672,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>13573</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1410,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>13573</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1419,6 +1714,21 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1429,10 +1739,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1662</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.006207</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1462,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1662</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1471,6 +1781,21 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
         <v>0</v>
       </c>
     </row>
